--- a/ProcessedData/conf_rbf_SVM_audio_3.xlsx
+++ b/ProcessedData/conf_rbf_SVM_audio_3.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7732130559133787</v>
+        <v>0.02656600785727007</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9285064050917335</v>
+        <v>0.1872944729152695</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5929575897395671</v>
+        <v>0.7861395192274603</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.983679684005897</v>
+        <v>0.001097458552363748</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.778737994439192</v>
+        <v>0.1133563238577138</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8914545203934927</v>
+        <v>0.8855462175899224</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9350143320844972</v>
+        <v>0.007081039306789658</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.325792049289215</v>
+        <v>0.09375192385868837</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9879264369048832</v>
+        <v>0.8991670368345219</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.06743366182001</v>
+        <v>0.01113566797274467</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.183908870335652</v>
+        <v>0.1650304395597182</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6761543868689421</v>
+        <v>0.8238338924675371</v>
       </c>
       <c r="E5" t="n">
         <v>19</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5545976830514598</v>
+        <v>0.04286846330839898</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8322233900530684</v>
+        <v>0.2186734439724159</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4831567116551957</v>
+        <v>0.7384580927191852</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3047589668222537</v>
+        <v>0.1644478960651926</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3293360459478074</v>
+        <v>0.5405483626342549</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4630211798807147</v>
+        <v>0.2950037413005526</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.018851484087141</v>
+        <v>0.01788562428206016</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.067839932850968</v>
+        <v>0.2832131854328693</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3367568047399465</v>
+        <v>0.6989011902850704</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.03828812548341</v>
+        <v>0.01333960049414344</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.149142699150753</v>
+        <v>0.2038497985115251</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5497258711210811</v>
+        <v>0.7828106009943318</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.149373418600993</v>
+        <v>0.006427221475036474</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.275481077973675</v>
+        <v>0.0724898156860211</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.12494422884029</v>
+        <v>0.9210829628389424</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9096969212450483</v>
+        <v>0.01058941246741701</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.159003069782779</v>
+        <v>0.07153000929932864</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.132293706656879</v>
+        <v>0.9178805782332542</v>
       </c>
       <c r="E11" t="n">
         <v>19</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7373360191282836</v>
+        <v>0.06848499000139498</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5401405486343358</v>
+        <v>0.3947989107054098</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05458619484036603</v>
+        <v>0.536716099293195</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.7111610264294421</v>
+        <v>0.03929629975106463</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8193227593452215</v>
+        <v>0.2718234097753479</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3483116939177484</v>
+        <v>0.6888802904735875</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.09767540863695</v>
+        <v>0.00707639256494707</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.406144956135501</v>
+        <v>0.1183754010403622</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8613351821844737</v>
+        <v>0.8745482063946907</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.8719111452076669</v>
+        <v>0.008162427811474214</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.280158833993193</v>
+        <v>0.06825237891214551</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.155941984845879</v>
+        <v>0.9235851932763802</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.187503475033031</v>
+        <v>0.005107565163999904</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.487285379805977</v>
+        <v>0.1276022575258345</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.8242184351829542</v>
+        <v>0.8672901773101657</v>
       </c>
       <c r="E16" t="n">
         <v>19</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3643004813738793</v>
+        <v>0.06080133478874509</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6891231927396668</v>
+        <v>0.1342258541413504</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7727851197913345</v>
+        <v>0.8049728110699046</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.330050428853502</v>
+        <v>0.004744520049363741</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.385315375894914</v>
+        <v>0.1033612483314167</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9394514199918098</v>
+        <v>0.8918942316192195</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.562872748018312</v>
+        <v>0.005431701175177629</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.322028806930656</v>
+        <v>0.2225306966378938</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5013633602237468</v>
+        <v>0.7720376021869287</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.7362278603108814</v>
+        <v>0.01618886617806779</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.109320763235824</v>
+        <v>0.1127218436425016</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.8855019356344349</v>
+        <v>0.8710892901794309</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9750699685859894</v>
+        <v>0.01269516820110338</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.252853883806433</v>
+        <v>0.2099533751490225</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5312909485657094</v>
+        <v>0.7773514566498745</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.01343865907855</v>
+        <v>0.030145254082086</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9336302609305656</v>
+        <v>0.6199879182789345</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3756265999993241</v>
+        <v>0.3498668276389793</v>
       </c>
       <c r="E22" t="n">
         <v>19</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.043614628150314</v>
+        <v>0.0006810478290233264</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.189771182003407</v>
+        <v>0.0350723470167136</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.495559271933528</v>
+        <v>0.964246605154263</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9584195859712759</v>
+        <v>0.004140645130210484</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.497014875232959</v>
+        <v>0.06970550014282223</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.144884690329872</v>
+        <v>0.9261538547269674</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.591750805199359</v>
+        <v>0.0006013096770472018</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.953449713353815</v>
+        <v>0.02132416589411103</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.742115681680827</v>
+        <v>0.9780745244288417</v>
       </c>
       <c r="E25" t="n">
         <v>20</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.340625201272095</v>
+        <v>0.01046982378684368</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.155071923320941</v>
+        <v>0.3023880057518253</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2978908682592709</v>
+        <v>0.6871421704613307</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.090606379463244</v>
+        <v>0.002875383980110421</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.577837650941272</v>
+        <v>0.05571964370345801</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.261177135390793</v>
+        <v>0.9414049723164315</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.318223287276444</v>
+        <v>0.006759724037954819</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.324434617848932</v>
+        <v>0.1915433613572058</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.5914431590122553</v>
+        <v>0.8016969146048394</v>
       </c>
       <c r="E28" t="n">
         <v>20</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.974917448104909</v>
+        <v>0.01661926852679988</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.07292749255033</v>
+        <v>0.1889157791838767</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.5906412975041611</v>
+        <v>0.7944649522893236</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.9417411596924319</v>
+        <v>0.02927599609243373</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8941377265385833</v>
+        <v>0.3964991274540112</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.07963252172681962</v>
+        <v>0.5742248764535547</v>
       </c>
       <c r="E30" t="n">
         <v>20</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.40486900205615</v>
+        <v>0.01219555385262095</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.056942575745334</v>
+        <v>0.3624228520129135</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1657230233893449</v>
+        <v>0.6253815941344653</v>
       </c>
       <c r="E31" t="n">
         <v>20</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.112441719157052</v>
+        <v>0.02007358855523171</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.039893807485635</v>
+        <v>0.4714222411343538</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06155534448739047</v>
+        <v>0.5085041703104141</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.063638325558989</v>
+        <v>0.01986130997150021</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.050194984992624</v>
+        <v>0.3964704745272038</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0880143340313117</v>
+        <v>0.5836682155012961</v>
       </c>
       <c r="E33" t="n">
         <v>20</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.05674225944036</v>
+        <v>0.01420899462390379</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.146365042713536</v>
+        <v>0.2474261382213858</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.4282680793391881</v>
+        <v>0.7383648671547104</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.354815619915305</v>
+        <v>0.01388195751313989</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.007382600674172</v>
+        <v>0.2872022114364963</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3313839161806959</v>
+        <v>0.6989158310503639</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.9312924178143669</v>
+        <v>0.03505688295536315</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.7476615204105976</v>
+        <v>0.1464823111761388</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.7411625632910535</v>
+        <v>0.8184608058684982</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.31326657150854</v>
+        <v>0.002633026736913044</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.539845939680456</v>
+        <v>0.04611366492218089</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.357768576190521</v>
+        <v>0.9512533083409059</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.7911462167892915</v>
+        <v>0.1339002757880573</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2196939491338363</v>
+        <v>0.3113595269092113</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2690203829141188</v>
+        <v>0.5547401973027315</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.897062430741306</v>
+        <v>0.009655905390615845</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.8535353404815091</v>
+        <v>0.6982944585029021</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5151997080998876</v>
+        <v>0.2920496361064824</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.155793531452721</v>
+        <v>0.01569956958024782</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.041623211425185</v>
+        <v>0.2811535244419386</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3440039484726304</v>
+        <v>0.7031469059778135</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.01899282222883</v>
+        <v>0.0124042844169313</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.128880486476798</v>
+        <v>0.135582832884626</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.7845177397954308</v>
+        <v>0.8520128826984427</v>
       </c>
       <c r="E41" t="n">
         <v>20</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.192895906370415</v>
+        <v>0.007156585004495683</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.29910272870975</v>
+        <v>0.09931770545972844</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.9570506149582747</v>
+        <v>0.8935257095357758</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.589780778006831</v>
+        <v>0.002745522076534473</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.546995883930701</v>
+        <v>0.1240432863786853</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.8414319352947337</v>
+        <v>0.8732111915447802</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.436241296455312</v>
+        <v>0.002535285490426519</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.604279109982111</v>
+        <v>0.08809638361344321</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.025388165088299</v>
+        <v>0.9093683308961301</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.6947643697971893</v>
+        <v>0.06833732511691949</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.5706451478725065</v>
+        <v>0.4357133337988455</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0370646034464977</v>
+        <v>0.4959493410842354</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.488982794015276</v>
+        <v>0.005663628007828416</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.348852297904367</v>
+        <v>0.2323388954900819</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4742700535732047</v>
+        <v>0.7619974765020895</v>
       </c>
       <c r="E46" t="n">
         <v>20</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9076405534963266</v>
+        <v>0.01117363299292945</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.157101505081779</v>
+        <v>0.08526831235050134</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.039466313966483</v>
+        <v>0.9035580546565692</v>
       </c>
       <c r="E47" t="n">
         <v>20</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.899845775188131</v>
+        <v>0.0006001920956647252</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.986226781375203</v>
+        <v>0.05880721786869499</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.235870850675921</v>
+        <v>0.9405925900356399</v>
       </c>
       <c r="E48" t="n">
         <v>20</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.9668355141203671</v>
+        <v>0.01455417280419788</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.099377638537713</v>
+        <v>0.1596488884058692</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6904728163383118</v>
+        <v>0.8257969387899328</v>
       </c>
       <c r="E49" t="n">
         <v>20</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2828071485010832</v>
+        <v>0.1420294762497268</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.3731812495279692</v>
+        <v>0.2609821454085319</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.318103096111995</v>
+        <v>0.5969883783417413</v>
       </c>
       <c r="E50" t="n">
         <v>20</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.480529995658179</v>
+        <v>0.004628044796542006</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.374492491603358</v>
+        <v>0.1407575141863302</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7704246366000951</v>
+        <v>0.854614441017128</v>
       </c>
       <c r="E51" t="n">
         <v>20</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.6610159020498594</v>
+        <v>0.06553450833002687</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.6139145587109547</v>
+        <v>0.4045231939945208</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02908093301402687</v>
+        <v>0.5299422976754522</v>
       </c>
       <c r="E52" t="n">
         <v>20</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.9892485657864591</v>
+        <v>0.01183581646020815</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.094865007160161</v>
+        <v>0.0999130659091423</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.9542792559450226</v>
+        <v>0.8882511176306496</v>
       </c>
       <c r="E53" t="n">
         <v>20</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.045805204470587</v>
+        <v>0.02378169713258202</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.9403257377233509</v>
+        <v>0.4023052757418423</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.07313871175717906</v>
+        <v>0.5739130271255759</v>
       </c>
       <c r="E54" t="n">
         <v>20</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.399381525866934</v>
+        <v>0.003979364805911951</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.46523642637923</v>
+        <v>0.1241246345008295</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8403847896387311</v>
+        <v>0.8718960006932583</v>
       </c>
       <c r="E55" t="n">
         <v>20</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.346975058929223</v>
+        <v>0.01146847892962184</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.111252405080033</v>
+        <v>0.3237937750977508</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2491270656597044</v>
+        <v>0.6647377459726274</v>
       </c>
       <c r="E56" t="n">
         <v>20</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.521935595992181</v>
+        <v>0.00274904213590347</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.589641963377341</v>
+        <v>0.12610541639746</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.8323214888366244</v>
+        <v>0.8711455414666369</v>
       </c>
       <c r="E57" t="n">
         <v>20</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1380230857739611</v>
+        <v>0.4373042707352726</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1675166381513598</v>
+        <v>0.2928028431024469</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0288435627404931</v>
+        <v>0.2698928861622805</v>
       </c>
       <c r="E58" t="n">
         <v>20</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.455741438079775</v>
+        <v>0.005320454244675164</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.375925350356534</v>
+        <v>0.2014226779644645</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.5622271929676521</v>
+        <v>0.7932568677908604</v>
       </c>
       <c r="E59" t="n">
         <v>20</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.446415298035822</v>
+        <v>0.002384878902582522</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.687674210511711</v>
+        <v>0.05998942202290061</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.22337061740451</v>
+        <v>0.9376256990745169</v>
       </c>
       <c r="E60" t="n">
         <v>20</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.7195596134888456</v>
+        <v>0.0275653351712373</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.9128531171703522</v>
+        <v>0.1573360542947725</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.6952369466437296</v>
+        <v>0.8150986105339902</v>
       </c>
       <c r="E61" t="n">
         <v>20</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.229618922280684</v>
+        <v>0.009384908426959234</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.241207466620561</v>
+        <v>0.2292676918088453</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.4800882578676044</v>
+        <v>0.7613473997641956</v>
       </c>
       <c r="E62" t="n">
         <v>20</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.08154685773467</v>
+        <v>0.01574246595468973</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.132047150361326</v>
+        <v>0.318833673128838</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.2561423882292337</v>
+        <v>0.6654238609164721</v>
       </c>
       <c r="E63" t="n">
         <v>21</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.294062737414938</v>
+        <v>0.005947005860241295</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.383940510156047</v>
+        <v>0.1679849641718788</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.668865569288895</v>
+        <v>0.8260680299678801</v>
       </c>
       <c r="E64" t="n">
         <v>21</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.5095309274439097</v>
+        <v>0.05024467815736679</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.7493907449856558</v>
+        <v>0.1866814195290296</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.5799844291612124</v>
+        <v>0.7630739023136034</v>
       </c>
       <c r="E65" t="n">
         <v>21</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.250071605966829</v>
+        <v>0.0193646473587266</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.9245650421342284</v>
+        <v>0.502236669648172</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1203894902677143</v>
+        <v>0.4783986829931015</v>
       </c>
       <c r="E66" t="n">
         <v>21</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8275991310130928</v>
+        <v>0.0202685655327284</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.057713354106918</v>
+        <v>0.2019388861117559</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.5499753986166787</v>
+        <v>0.7777925483555159</v>
       </c>
       <c r="E67" t="n">
         <v>21</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.73265424914708</v>
+        <v>0.006906728614888263</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.314661145300131</v>
+        <v>0.7461448314495305</v>
       </c>
       <c r="D68" t="n">
-        <v>0.628339336490614</v>
+        <v>0.246948439935581</v>
       </c>
       <c r="E68" t="n">
         <v>21</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.082723692230265</v>
+        <v>0.03865787714105482</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.6345984555816053</v>
+        <v>0.5941208827892849</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3284241579722243</v>
+        <v>0.3672212400696601</v>
       </c>
       <c r="E69" t="n">
         <v>21</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1733385932324774</v>
+        <v>0.2717055237061037</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.02575098344126525</v>
+        <v>0.5410987023907519</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7439208583031864</v>
+        <v>0.1871957739031442</v>
       </c>
       <c r="E70" t="n">
         <v>21</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.361608146602213</v>
+        <v>0.01780077256990169</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.8457312181363883</v>
+        <v>0.7357840318970348</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6236373439546576</v>
+        <v>0.2464151955330635</v>
       </c>
       <c r="E71" t="n">
         <v>21</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.802241318339602</v>
+        <v>0.04700024051349997</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.7548589946089614</v>
+        <v>0.4907547672618408</v>
       </c>
       <c r="D72" t="n">
-        <v>0.131197327100781</v>
+        <v>0.462244992224659</v>
       </c>
       <c r="E72" t="n">
         <v>21</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.684950062405155</v>
+        <v>0.002104396843019192</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.632720432723398</v>
+        <v>0.1272909363110867</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8275500321446834</v>
+        <v>0.8706046668458941</v>
       </c>
       <c r="E73" t="n">
         <v>21</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9275646330132383</v>
+        <v>0.03813651516803863</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.7564715445815104</v>
+        <v>0.459261685720255</v>
       </c>
       <c r="D74" t="n">
-        <v>0.05495404401489395</v>
+        <v>0.5026017991117064</v>
       </c>
       <c r="E74" t="n">
         <v>21</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9799386874754157</v>
+        <v>0.0447622676924846</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.5964957968222628</v>
+        <v>0.7523565532383016</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7367987715753821</v>
+        <v>0.202881179069214</v>
       </c>
       <c r="E75" t="n">
         <v>21</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.00290833990187</v>
+        <v>0.05736131205813278</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.2643039912728207</v>
+        <v>0.8398266951727208</v>
       </c>
       <c r="D76" t="n">
-        <v>1.128580421563444</v>
+        <v>0.1028119927691464</v>
       </c>
       <c r="E76" t="n">
         <v>21</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.119195312870948</v>
+        <v>0.02892646822091037</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.785134600191649</v>
+        <v>0.5874117529622997</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3028346009120378</v>
+        <v>0.3836617788167901</v>
       </c>
       <c r="E77" t="n">
         <v>21</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.139674641123354</v>
+        <v>0.01869156217517417</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.9447394608031012</v>
+        <v>0.1558984795773628</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.7037832186776831</v>
+        <v>0.825409958247463</v>
       </c>
       <c r="E78" t="n">
         <v>21</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.391871393237997</v>
+        <v>0.02015031441733625</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.7436677100723252</v>
+        <v>0.7123096383905922</v>
       </c>
       <c r="D79" t="n">
-        <v>0.567756856107311</v>
+        <v>0.2675400471920713</v>
       </c>
       <c r="E79" t="n">
         <v>21</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.7683783626968841</v>
+        <v>0.05039332769133072</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.7058557137313906</v>
+        <v>0.4327803517121632</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0154011193473616</v>
+        <v>0.5168263205965061</v>
       </c>
       <c r="E80" t="n">
         <v>21</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.8826015210230247</v>
+        <v>0.09188116428753049</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1247909557332938</v>
+        <v>0.8494796818572108</v>
       </c>
       <c r="D81" t="n">
-        <v>1.374428320022803</v>
+        <v>0.05863915385525887</v>
       </c>
       <c r="E81" t="n">
         <v>21</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.06889281456724</v>
+        <v>0.03085360466707728</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.804286147945755</v>
+        <v>0.6340836863437215</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4062597737192442</v>
+        <v>0.3350627089892012</v>
       </c>
       <c r="E82" t="n">
         <v>21</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.8159659405245685</v>
+        <v>0.05379216501281953</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.655952144860644</v>
+        <v>0.5927302066768109</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3532906021327187</v>
+        <v>0.3534776283103696</v>
       </c>
       <c r="E83" t="n">
         <v>21</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.504835125378113</v>
+        <v>0.007712478128424415</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.276412393868734</v>
+        <v>0.4124914835218295</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.06689190969765718</v>
+        <v>0.579796038349746</v>
       </c>
       <c r="E84" t="n">
         <v>21</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.030185707999697</v>
+        <v>0.01966001860833835</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.9754185714439338</v>
+        <v>0.2386754810067897</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4487666165626058</v>
+        <v>0.7416645003848717</v>
       </c>
       <c r="E85" t="n">
         <v>21</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.8487825998303771</v>
+        <v>0.06033193128215335</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.5288956606451287</v>
+        <v>0.636485029674888</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4603400965576321</v>
+        <v>0.3031830390429588</v>
       </c>
       <c r="E86" t="n">
         <v>21</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.171282156593312</v>
+        <v>0.009301906978142571</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.206408958957065</v>
+        <v>0.1552734452994189</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.7124307909451324</v>
+        <v>0.8354246477224386</v>
       </c>
       <c r="E87" t="n">
         <v>21</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.8460793869468597</v>
+        <v>0.06501403726208085</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.4579925064066068</v>
+        <v>0.717841472404419</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6859357941008448</v>
+        <v>0.2171444903335006</v>
       </c>
       <c r="E88" t="n">
         <v>21</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8143128757244591</v>
+        <v>0.0625557368477286</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.543401264419098</v>
+        <v>0.7515678746591652</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7919201121076775</v>
+        <v>0.1858763884931059</v>
       </c>
       <c r="E89" t="n">
         <v>21</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1945686134421487</v>
+        <v>0.3030943441430892</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1375345253358851</v>
+        <v>0.5787076697257847</v>
       </c>
       <c r="D90" t="n">
-        <v>1.027361755437655</v>
+        <v>0.1181979861311263</v>
       </c>
       <c r="E90" t="n">
         <v>22</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.708472430200763</v>
+        <v>0.0006498485157731559</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.715749843964611</v>
+        <v>0.03899021715716754</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.442558025490795</v>
+        <v>0.9603599343270594</v>
       </c>
       <c r="E91" t="n">
         <v>22</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.656546231397277</v>
+        <v>0.001285319120192434</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.830422294509456</v>
+        <v>0.04063953978274878</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.421551519541052</v>
+        <v>0.9580751410970587</v>
       </c>
       <c r="E92" t="n">
         <v>22</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.37045228794735</v>
+        <v>0.02832508931530894</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.4694437982446922</v>
+        <v>0.8052406585163401</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8531884657202107</v>
+        <v>0.1664342521683508</v>
       </c>
       <c r="E93" t="n">
         <v>22</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.6539164995872591</v>
+        <v>0.09199358966852286</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.417729074555178</v>
+        <v>0.5490777778037561</v>
       </c>
       <c r="D94" t="n">
-        <v>0.308419550972547</v>
+        <v>0.3589286325277211</v>
       </c>
       <c r="E94" t="n">
         <v>22</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.155770527153867</v>
+        <v>0.02093293647974603</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.9555162816013998</v>
+        <v>0.4787797342718382</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07636176223947416</v>
+        <v>0.5002873292484158</v>
       </c>
       <c r="E95" t="n">
         <v>22</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.5225729853869916</v>
+        <v>0.1488987421332813</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2478221703720842</v>
+        <v>0.3193078164682903</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.2106747287767212</v>
+        <v>0.5317934413984284</v>
       </c>
       <c r="E96" t="n">
         <v>22</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.6834527102987999</v>
+        <v>0.07156405218622486</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.557375905873537</v>
+        <v>0.480617672794184</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1365091801997403</v>
+        <v>0.4478182750195911</v>
       </c>
       <c r="E97" t="n">
         <v>22</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.9740103045360848</v>
+        <v>0.04720480054392144</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.57199852685009</v>
+        <v>0.6798098351916804</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5404156468411565</v>
+        <v>0.2729853642643982</v>
       </c>
       <c r="E98" t="n">
         <v>22</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.946039957056106</v>
+        <v>0.0236271189729194</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.9516984096074688</v>
+        <v>0.2478160789890275</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.4193828237560359</v>
+        <v>0.7285568020380531</v>
       </c>
       <c r="E99" t="n">
         <v>22</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.5342976377110824</v>
+        <v>0.09388411095562979</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.4977305606592162</v>
+        <v>0.4622452134400398</v>
       </c>
       <c r="D100" t="n">
-        <v>0.129101062738203</v>
+        <v>0.4438706756043306</v>
       </c>
       <c r="E100" t="n">
         <v>22</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.900710058206377</v>
+        <v>0.0008215442441438467</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.012721093161029</v>
+        <v>0.117360877605674</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.8727181017776764</v>
+        <v>0.8818175781501819</v>
       </c>
       <c r="E101" t="n">
         <v>22</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.8776419415407355</v>
+        <v>0.01905784544536218</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.010924030903022</v>
+        <v>0.1570644510310497</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.700783377418714</v>
+        <v>0.8238777035235879</v>
       </c>
       <c r="E102" t="n">
         <v>22</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.5314433652356791</v>
+        <v>0.03330896490247647</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.9448860306285618</v>
+        <v>0.1764001404494724</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.6172520474899392</v>
+        <v>0.7902908946480515</v>
       </c>
       <c r="E103" t="n">
         <v>22</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.5339122382315276</v>
+        <v>0.02750447356256961</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.97550133104887</v>
+        <v>0.1277295126103052</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.8076711749484651</v>
+        <v>0.8447660138271254</v>
       </c>
       <c r="E104" t="n">
         <v>22</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-2.943584664084801</v>
+        <v>0.0007711080980885482</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.890005279079811</v>
+        <v>0.04341357952031297</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.388456821224833</v>
+        <v>0.9558153123815987</v>
       </c>
       <c r="E105" t="n">
         <v>22</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.596300688007479</v>
+        <v>0.001166275500467805</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.87073862598613</v>
+        <v>0.03912996068014355</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.440643624594228</v>
+        <v>0.9597037638193886</v>
       </c>
       <c r="E106" t="n">
         <v>22</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.09072104088881416</v>
+        <v>0.3152012978089726</v>
       </c>
       <c r="C107" t="n">
-        <v>0.035961600294248</v>
+        <v>0.3650908675046764</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08896608655516275</v>
+        <v>0.3197078346863509</v>
       </c>
       <c r="E107" t="n">
         <v>22</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.9632165238836075</v>
+        <v>0.02213618155573803</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.994665569077791</v>
+        <v>0.3014348708442492</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.290862710433982</v>
+        <v>0.6764289476000126</v>
       </c>
       <c r="E108" t="n">
         <v>22</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.4350949421897405</v>
+        <v>0.238201055060403</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7528251665939272</v>
+        <v>0.7433636253881043</v>
       </c>
       <c r="D109" t="n">
-        <v>1.78959297277274</v>
+        <v>0.01843531955149296</v>
       </c>
       <c r="E109" t="n">
         <v>22</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.517604778652389</v>
+        <v>0.08031811875044903</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.5720400921933568</v>
+        <v>0.3387794414872588</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1576958126905032</v>
+        <v>0.5809024397622917</v>
       </c>
       <c r="E110" t="n">
         <v>22</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.321365785341887</v>
+        <v>0.02181492495073184</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.7809381006073246</v>
+        <v>0.6431755084841424</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4105278214236017</v>
+        <v>0.3350095665651259</v>
       </c>
       <c r="E111" t="n">
         <v>22</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.066683407029577</v>
+        <v>0.0234586688026905</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.9191279207350456</v>
+        <v>0.3751527930781939</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1297543833670409</v>
+        <v>0.6013885381191155</v>
       </c>
       <c r="E112" t="n">
         <v>22</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.207098808233615</v>
+        <v>0.007395896626293447</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.308426214750563</v>
+        <v>0.1594701683426335</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.6979917768292245</v>
+        <v>0.8331339350310728</v>
       </c>
       <c r="E113" t="n">
         <v>22</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.117334025675239</v>
+        <v>0.00797847986928007</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.30231470504476</v>
+        <v>0.1432590116692042</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7583499200820518</v>
+        <v>0.8487625084615159</v>
       </c>
       <c r="E114" t="n">
         <v>22</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.048629412545301</v>
+        <v>0.01145959977177245</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.204011101354193</v>
+        <v>0.1507516982821155</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.7243341485510348</v>
+        <v>0.8377887019461119</v>
       </c>
       <c r="E115" t="n">
         <v>22</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.7781025342595649</v>
+        <v>0.03724093130020152</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.8750034150096675</v>
+        <v>0.3613272713574058</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1437209255193301</v>
+        <v>0.6014317973423927</v>
       </c>
       <c r="E116" t="n">
         <v>22</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.615379234069385</v>
+        <v>0.009050951386860077</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.101481100642739</v>
+        <v>0.4476521926461323</v>
       </c>
       <c r="D117" t="n">
-        <v>0.003484120399692758</v>
+        <v>0.5432968559670078</v>
       </c>
       <c r="E117" t="n">
         <v>22</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.9378405954338882</v>
+        <v>0.02628514488383236</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.9133993654523871</v>
+        <v>0.3058548994589732</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.2781347192085497</v>
+        <v>0.6678599556571946</v>
       </c>
       <c r="E118" t="n">
         <v>22</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.7108528033422823</v>
+        <v>0.06244888399105328</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.5937684428304757</v>
+        <v>0.3027148149849104</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.2654008197949457</v>
+        <v>0.6348363010240364</v>
       </c>
       <c r="E119" t="n">
         <v>22</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.054216041413346</v>
+        <v>0.004570075598436682</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.49339667473428</v>
+        <v>0.0809820738726278</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.066448280921745</v>
+        <v>0.9144478505289356</v>
       </c>
       <c r="E120" t="n">
         <v>22</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.260767260219841</v>
+        <v>0.02193691798116583</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.8417180751787989</v>
+        <v>0.5180881143413623</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1538585327975022</v>
+        <v>0.4599749676774717</v>
       </c>
       <c r="E121" t="n">
         <v>23</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1019919048801461</v>
+        <v>0.4618050921834739</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2864981767646575</v>
+        <v>0.4113799547348347</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7815255753960479</v>
+        <v>0.1268149530816913</v>
       </c>
       <c r="E122" t="n">
         <v>23</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.8889251554391586</v>
+        <v>0.0527765931002589</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.5872488789185391</v>
+        <v>0.642419848613131</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4617797693271677</v>
+        <v>0.3048035582866104</v>
       </c>
       <c r="E123" t="n">
         <v>23</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3578454735312084</v>
+        <v>0.6753000598789134</v>
       </c>
       <c r="C124" t="n">
-        <v>1.064618966434229</v>
+        <v>0.3081770598343462</v>
       </c>
       <c r="D124" t="n">
-        <v>1.409550967038543</v>
+        <v>0.01652288028674059</v>
       </c>
       <c r="E124" t="n">
         <v>23</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7404505369517216</v>
+        <v>0.8351940730157736</v>
       </c>
       <c r="C125" t="n">
-        <v>1.207637627841142</v>
+        <v>0.1495033845932345</v>
       </c>
       <c r="D125" t="n">
-        <v>1.007808443705772</v>
+        <v>0.01530254239099188</v>
       </c>
       <c r="E125" t="n">
         <v>23</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.2794659698946071</v>
+        <v>0.2762342402677833</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1865011305270818</v>
+        <v>0.6269195772969521</v>
       </c>
       <c r="D126" t="n">
-        <v>1.127347724133303</v>
+        <v>0.09684618243526463</v>
       </c>
       <c r="E126" t="n">
         <v>23</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.230446132273608</v>
+        <v>0.6062566174503461</v>
       </c>
       <c r="C127" t="n">
-        <v>1.036989711556435</v>
+        <v>0.377679120200285</v>
       </c>
       <c r="D127" t="n">
-        <v>1.531394887589942</v>
+        <v>0.016064262349369</v>
       </c>
       <c r="E127" t="n">
         <v>23</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.074221476050662</v>
+        <v>0.9226015316011837</v>
       </c>
       <c r="C128" t="n">
-        <v>1.665774807047219</v>
+        <v>0.07390469387184152</v>
       </c>
       <c r="D128" t="n">
-        <v>1.372510402036229</v>
+        <v>0.00349377452697497</v>
       </c>
       <c r="E128" t="n">
         <v>23</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1398185262212428</v>
+        <v>0.5282506152306254</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5967553681920967</v>
+        <v>0.4007689079281507</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8340650620020278</v>
+        <v>0.07098047684122406</v>
       </c>
       <c r="E129" t="n">
         <v>23</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1639353168256241</v>
+        <v>0.5174574750566161</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3940898914235524</v>
+        <v>0.3847386879828837</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8715268679876851</v>
+        <v>0.09780383696049987</v>
       </c>
       <c r="E130" t="n">
         <v>23</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3860766936285154</v>
+        <v>0.1176847169563767</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.502184116291398</v>
+        <v>0.5345333239617711</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3531102925980912</v>
+        <v>0.3477819590818519</v>
       </c>
       <c r="E131" t="n">
         <v>23</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.2875753829509813</v>
+        <v>0.2610979378927207</v>
       </c>
       <c r="C132" t="n">
-        <v>0.08724829646214038</v>
+        <v>0.4963721504836221</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3622001551608514</v>
+        <v>0.2425299116236573</v>
       </c>
       <c r="E132" t="n">
         <v>23</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.08954342132314763</v>
+        <v>0.358834318621057</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2046511274583955</v>
+        <v>0.5138894471241027</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8830866803562167</v>
+        <v>0.1272762342548402</v>
       </c>
       <c r="E133" t="n">
         <v>23</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1450237034242099</v>
+        <v>0.4808076590077976</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2951110999457334</v>
+        <v>0.3823933075540804</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6749669235531024</v>
+        <v>0.1367990334381221</v>
       </c>
       <c r="E134" t="n">
         <v>23</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.542029538067377</v>
+        <v>0.7525240960925343</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9088335071559377</v>
+        <v>0.2187707451367307</v>
       </c>
       <c r="D135" t="n">
-        <v>1.023354471022403</v>
+        <v>0.02870515877073483</v>
       </c>
       <c r="E135" t="n">
         <v>23</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.4352765758507411</v>
+        <v>0.20946819214954</v>
       </c>
       <c r="C136" t="n">
-        <v>0.09179542285079867</v>
+        <v>0.6114850655262365</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6383874433479826</v>
+        <v>0.1790467423242237</v>
       </c>
       <c r="E136" t="n">
         <v>23</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.08969651822381253</v>
+        <v>0.5013046465835584</v>
       </c>
       <c r="C137" t="n">
-        <v>0.60270376653826</v>
+        <v>0.4285007275613128</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8507696676128966</v>
+        <v>0.07019462585512885</v>
       </c>
       <c r="E137" t="n">
         <v>23</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1580369646480995</v>
+        <v>0.5302618842201375</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4741664813456388</v>
+        <v>0.39844875809202</v>
       </c>
       <c r="D138" t="n">
-        <v>1.07285682469224</v>
+        <v>0.07128935768784249</v>
       </c>
       <c r="E138" t="n">
         <v>23</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.114263436261586</v>
+        <v>0.3690495359388017</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2994067583511728</v>
+        <v>0.5450268584511669</v>
       </c>
       <c r="D139" t="n">
-        <v>1.155602559630895</v>
+        <v>0.08592360561003141</v>
       </c>
       <c r="E139" t="n">
         <v>23</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.5358739064017664</v>
+        <v>0.1598387161842257</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.08860097809503964</v>
+        <v>0.5971573270309748</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5102242583169265</v>
+        <v>0.2430039567847996</v>
       </c>
       <c r="E140" t="n">
         <v>23</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.5858208113981556</v>
+        <v>0.0841348239296241</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.516533871112808</v>
+        <v>0.4024729776722045</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.01744363247418107</v>
+        <v>0.5133921983981712</v>
       </c>
       <c r="E141" t="n">
         <v>23</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4786000392453877</v>
+        <v>0.7221386816725065</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8511937523866258</v>
+        <v>0.2450237496049517</v>
       </c>
       <c r="D142" t="n">
-        <v>1.031613647608923</v>
+        <v>0.03283756872254137</v>
       </c>
       <c r="E142" t="n">
         <v>23</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.2854461888958946</v>
+        <v>0.2820461613487222</v>
       </c>
       <c r="C143" t="n">
-        <v>0.262999064675062</v>
+        <v>0.6219571552726144</v>
       </c>
       <c r="D143" t="n">
-        <v>1.026784253019729</v>
+        <v>0.09599668337866311</v>
       </c>
       <c r="E143" t="n">
         <v>23</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.2341591876357734</v>
+        <v>0.3148756027072721</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3739969808455661</v>
+        <v>0.5982571179793921</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9834584235839423</v>
+        <v>0.08686727931333568</v>
       </c>
       <c r="E144" t="n">
         <v>23</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.6507762385251021</v>
+        <v>0.1192698799056881</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.1977901346885127</v>
+        <v>0.6559910676666064</v>
       </c>
       <c r="D145" t="n">
-        <v>0.6182067765980315</v>
+        <v>0.2247390524277053</v>
       </c>
       <c r="E145" t="n">
         <v>23</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.1782304343743328</v>
+        <v>0.1849694584452297</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.2843550435671411</v>
+        <v>0.3275388664907274</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.08368930329654972</v>
+        <v>0.4874916750640427</v>
       </c>
       <c r="E146" t="n">
         <v>23</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3757691065804016</v>
+        <v>0.6704352717259077</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8121222245557411</v>
+        <v>0.2910750047393676</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9963257758131641</v>
+        <v>0.03848972353472474</v>
       </c>
       <c r="E147" t="n">
         <v>23</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.06267301297545713</v>
+        <v>0.3762021255921757</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2479178127058126</v>
+        <v>0.4828338544641927</v>
       </c>
       <c r="D148" t="n">
-        <v>0.7083587099302258</v>
+        <v>0.1409640199436316</v>
       </c>
       <c r="E148" t="n">
         <v>23</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.4093102425739141</v>
+        <v>0.2112053908801054</v>
       </c>
       <c r="C149" t="n">
-        <v>0.04573005417149067</v>
+        <v>0.5901593104099307</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5894623981530906</v>
+        <v>0.1986352987099638</v>
       </c>
       <c r="E149" t="n">
         <v>24</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.669113171701236</v>
+        <v>0.794553139489996</v>
       </c>
       <c r="C150" t="n">
-        <v>0.8825562239011808</v>
+        <v>0.1666467095620221</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6573828028972764</v>
+        <v>0.03880015094798176</v>
       </c>
       <c r="E150" t="n">
         <v>24</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.7752411227218465</v>
+        <v>0.8414705743599346</v>
       </c>
       <c r="C151" t="n">
-        <v>1.172512768716663</v>
+        <v>0.1331722634956095</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5603748610198829</v>
+        <v>0.02535716214445617</v>
       </c>
       <c r="E151" t="n">
         <v>24</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1519256789718446</v>
+        <v>0.5438775926793823</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7534819206037233</v>
+        <v>0.397581595728443</v>
       </c>
       <c r="D152" t="n">
-        <v>0.8096304448325378</v>
+        <v>0.05854081159217452</v>
       </c>
       <c r="E152" t="n">
         <v>24</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1251107080471121</v>
+        <v>0.4774440018812015</v>
       </c>
       <c r="C153" t="n">
-        <v>0.3220114739266555</v>
+        <v>0.3445569202983451</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2911437366472592</v>
+        <v>0.1779990778204534</v>
       </c>
       <c r="E153" t="n">
         <v>24</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.4595361765000996</v>
+        <v>0.1995158438406875</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.04202384017261318</v>
+        <v>0.4507726542115703</v>
       </c>
       <c r="D154" t="n">
-        <v>0.125976471859945</v>
+        <v>0.3497115019477421</v>
       </c>
       <c r="E154" t="n">
         <v>24</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.4138742971907357</v>
+        <v>0.199239473893367</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.09344275653141176</v>
+        <v>0.3983085111433164</v>
       </c>
       <c r="D155" t="n">
-        <v>0.005132398632783863</v>
+        <v>0.4024520149633164</v>
       </c>
       <c r="E155" t="n">
         <v>24</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.6635438275173635</v>
+        <v>0.04845422414050814</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.7396380684046684</v>
+        <v>0.2822210947564838</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.316927096682702</v>
+        <v>0.6693246811030079</v>
       </c>
       <c r="E156" t="n">
         <v>24</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.01570650693462539</v>
+        <v>0.4590975895928732</v>
       </c>
       <c r="C157" t="n">
-        <v>1.048378714144936</v>
+        <v>0.5232152092205338</v>
       </c>
       <c r="D157" t="n">
-        <v>1.539142560655252</v>
+        <v>0.01768720118659295</v>
       </c>
       <c r="E157" t="n">
         <v>24</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.04261745155762298</v>
+        <v>0.3065138407724195</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.02044731604459082</v>
+        <v>0.3522497551026645</v>
       </c>
       <c r="D158" t="n">
-        <v>0.08753385516014817</v>
+        <v>0.341236404124916</v>
       </c>
       <c r="E158" t="n">
         <v>24</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.009281052699582792</v>
+        <v>0.406738612850027</v>
       </c>
       <c r="C159" t="n">
-        <v>0.289554830707734</v>
+        <v>0.4288953829474491</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4763876916603374</v>
+        <v>0.1643660042025238</v>
       </c>
       <c r="E159" t="n">
         <v>24</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.07944708582463478</v>
+        <v>0.4696400101418804</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3874272699327057</v>
+        <v>0.3636651905667126</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2632513151976377</v>
+        <v>0.1666947992914072</v>
       </c>
       <c r="E160" t="n">
         <v>24</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.3409049295005724</v>
+        <v>0.2259476945325294</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.05380651742842213</v>
+        <v>0.3851968902829874</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.008444804477347245</v>
+        <v>0.3888554151844833</v>
       </c>
       <c r="E161" t="n">
         <v>24</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4204101350122988</v>
+        <v>0.6994944749470215</v>
       </c>
       <c r="C162" t="n">
-        <v>0.964831239469182</v>
+        <v>0.272321685543277</v>
       </c>
       <c r="D162" t="n">
-        <v>1.039175846461492</v>
+        <v>0.0281838395097013</v>
       </c>
       <c r="E162" t="n">
         <v>24</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.5662733258506927</v>
+        <v>0.1600253397559674</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.1092024072190818</v>
+        <v>0.5033805294603029</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2336604797897928</v>
+        <v>0.3365941307837296</v>
       </c>
       <c r="E163" t="n">
         <v>24</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.03259096822212881</v>
+        <v>0.421748917495301</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4445495837868285</v>
+        <v>0.4341007841291298</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3942621000395712</v>
+        <v>0.1441502983755692</v>
       </c>
       <c r="E164" t="n">
         <v>24</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3791854999339626</v>
+        <v>0.6717967305984253</v>
       </c>
       <c r="C165" t="n">
-        <v>0.8600011076002452</v>
+        <v>0.2857399378202564</v>
       </c>
       <c r="D165" t="n">
-        <v>0.8342400663311786</v>
+        <v>0.04246333158131812</v>
       </c>
       <c r="E165" t="n">
         <v>24</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.2012245356459255</v>
+        <v>0.3106013420372483</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1214998058590786</v>
+        <v>0.390882003051565</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0588670478640006</v>
+        <v>0.2985166549111867</v>
       </c>
       <c r="E166" t="n">
         <v>24</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2087003458652339</v>
+        <v>0.5773855172215718</v>
       </c>
       <c r="C167" t="n">
-        <v>0.810730459183906</v>
+        <v>0.3639354513724224</v>
       </c>
       <c r="D167" t="n">
-        <v>0.7193794502024837</v>
+        <v>0.05867903140600548</v>
       </c>
       <c r="E167" t="n">
         <v>24</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.9126117776444482</v>
+        <v>0.03553186692850846</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.7524106699055957</v>
+        <v>0.1972094338968939</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.5629077828296665</v>
+        <v>0.7672586991745978</v>
       </c>
       <c r="E168" t="n">
         <v>24</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.5300274540446475</v>
+        <v>0.03114690440635301</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.9124226644875457</v>
+        <v>0.1253379352459964</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.8189595143649604</v>
+        <v>0.8435151603476504</v>
       </c>
       <c r="E169" t="n">
         <v>24</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.009214220332685263</v>
+        <v>0.4456464644543568</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5672370268135487</v>
+        <v>0.446847824059135</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5334898740491689</v>
+        <v>0.1075057114865081</v>
       </c>
       <c r="E170" t="n">
         <v>25</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.6852803862016736</v>
+        <v>0.1484939413509431</v>
       </c>
       <c r="C171" t="n">
-        <v>0.174841183474205</v>
+        <v>0.7075771107031645</v>
       </c>
       <c r="D171" t="n">
-        <v>0.740370126359482</v>
+        <v>0.1439289479458925</v>
       </c>
       <c r="E171" t="n">
         <v>25</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.396315510506559</v>
+        <v>0.2372125499303739</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1293038404944773</v>
+        <v>0.5246722067546841</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3450263712094875</v>
+        <v>0.2381152433149419</v>
       </c>
       <c r="E172" t="n">
         <v>25</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.09605701626119356</v>
+        <v>0.5033427536514075</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6032333749939247</v>
+        <v>0.4086352345457607</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6352718747524357</v>
+        <v>0.08802201180283183</v>
       </c>
       <c r="E173" t="n">
         <v>25</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4480330848977678</v>
+        <v>0.7066056182791793</v>
       </c>
       <c r="C174" t="n">
-        <v>0.8813850095739943</v>
+        <v>0.2552096707659486</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8550035930105531</v>
+        <v>0.03818471095487207</v>
       </c>
       <c r="E174" t="n">
         <v>25</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.7923874397403148</v>
+        <v>0.1281375573587637</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.06768363091223728</v>
+        <v>0.5725956984584373</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3338941718771503</v>
+        <v>0.2992667441827989</v>
       </c>
       <c r="E175" t="n">
         <v>25</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.4368488949021037</v>
+        <v>0.2349277010569433</v>
       </c>
       <c r="C176" t="n">
-        <v>0.4372820170119431</v>
+        <v>0.6485317418804517</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6947361912360344</v>
+        <v>0.116540557062605</v>
       </c>
       <c r="E176" t="n">
         <v>25</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.02353980639883901</v>
+        <v>0.4585600514944434</v>
       </c>
       <c r="C177" t="n">
-        <v>0.5118739488368269</v>
+        <v>0.4069196156850837</v>
       </c>
       <c r="D177" t="n">
-        <v>0.35237402075825</v>
+        <v>0.1345203328204727</v>
       </c>
       <c r="E177" t="n">
         <v>25</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1299757164882271</v>
+        <v>0.5251414310233945</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6365781247381412</v>
+        <v>0.4045790615855931</v>
       </c>
       <c r="D178" t="n">
-        <v>0.7908820054668433</v>
+        <v>0.07027950739101251</v>
       </c>
       <c r="E178" t="n">
         <v>25</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1973863425823146</v>
+        <v>0.5604466986561517</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6404501047673725</v>
+        <v>0.355532104396779</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5812525657732999</v>
+        <v>0.08402119694706904</v>
       </c>
       <c r="E179" t="n">
         <v>25</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4759204170523594</v>
+        <v>0.7295325351400599</v>
       </c>
       <c r="C180" t="n">
-        <v>1.103997674567201</v>
+        <v>0.2479736919964579</v>
       </c>
       <c r="D180" t="n">
-        <v>1.038736015281162</v>
+        <v>0.02249377286348218</v>
       </c>
       <c r="E180" t="n">
         <v>25</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.2590357720711347</v>
+        <v>0.3133130316805028</v>
       </c>
       <c r="C181" t="n">
-        <v>0.3577416614757758</v>
+        <v>0.5080837423316208</v>
       </c>
       <c r="D181" t="n">
-        <v>0.3543800845275791</v>
+        <v>0.1786032259878765</v>
       </c>
       <c r="E181" t="n">
         <v>25</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2164351444731045</v>
+        <v>0.5956168068884065</v>
       </c>
       <c r="C182" t="n">
-        <v>1.188491704837863</v>
+        <v>0.3820798582166939</v>
       </c>
       <c r="D182" t="n">
-        <v>1.188808510146119</v>
+        <v>0.02230333489489954</v>
       </c>
       <c r="E182" t="n">
         <v>25</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.6820811096853936</v>
+        <v>0.8069132079355653</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9934921601155557</v>
+        <v>0.1652487490574749</v>
       </c>
       <c r="D183" t="n">
-        <v>0.8013067371334324</v>
+        <v>0.02783804300695981</v>
       </c>
       <c r="E183" t="n">
         <v>25</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.5152524461028827</v>
+        <v>0.1984033657441755</v>
       </c>
       <c r="C184" t="n">
-        <v>0.01969617108013244</v>
+        <v>0.4917966924724796</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2031808101167508</v>
+        <v>0.3097999417833449</v>
       </c>
       <c r="E184" t="n">
         <v>25</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.2627423935991067</v>
+        <v>0.6078141052712549</v>
       </c>
       <c r="C185" t="n">
-        <v>0.8119272276203637</v>
+        <v>0.339886286307185</v>
       </c>
       <c r="D185" t="n">
-        <v>0.7821766295234647</v>
+        <v>0.05229960842156006</v>
       </c>
       <c r="E185" t="n">
         <v>25</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.3860330184531426</v>
+        <v>0.6857767173400928</v>
       </c>
       <c r="C186" t="n">
-        <v>1.137123866703126</v>
+        <v>0.2893834415172177</v>
       </c>
       <c r="D186" t="n">
-        <v>1.01498851967658</v>
+        <v>0.02483984114268939</v>
       </c>
       <c r="E186" t="n">
         <v>25</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1062937699511599</v>
+        <v>0.5129169009632715</v>
       </c>
       <c r="C187" t="n">
-        <v>0.6636250263465846</v>
+        <v>0.4057035551000754</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6348595284307685</v>
+        <v>0.08137954393665303</v>
       </c>
       <c r="E187" t="n">
         <v>25</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.4824821466324829</v>
+        <v>0.1755081645235466</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.1369426448008206</v>
+        <v>0.420141608773308</v>
       </c>
       <c r="D188" t="n">
-        <v>0.05108464491202597</v>
+        <v>0.4043502267031455</v>
       </c>
       <c r="E188" t="n">
         <v>25</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.7295488714922038</v>
+        <v>0.02150322465165536</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.897023960050769</v>
+        <v>0.02957010398274457</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.631308424817872</v>
+        <v>0.9489266713656</v>
       </c>
       <c r="E189" t="n">
         <v>25</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1960223571251822</v>
+        <v>0.5717309139286474</v>
       </c>
       <c r="C190" t="n">
-        <v>0.8560182376578687</v>
+        <v>0.366667383599751</v>
       </c>
       <c r="D190" t="n">
-        <v>0.6498952572271741</v>
+        <v>0.0616017024716016</v>
       </c>
       <c r="E190" t="n">
         <v>25</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.4213069773230893</v>
+        <v>0.2506545339180969</v>
       </c>
       <c r="C191" t="n">
-        <v>0.2346553708005721</v>
+        <v>0.5161378253807609</v>
       </c>
       <c r="D191" t="n">
-        <v>0.2552751480512706</v>
+        <v>0.2332076407011419</v>
       </c>
       <c r="E191" t="n">
         <v>25</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.004531433677561258</v>
+        <v>0.4351751637805258</v>
       </c>
       <c r="C192" t="n">
-        <v>0.46563279223489</v>
+        <v>0.4486998872541097</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5795118860559563</v>
+        <v>0.1161249489653646</v>
       </c>
       <c r="E192" t="n">
         <v>25</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4874209421241835</v>
+        <v>0.721142694053342</v>
       </c>
       <c r="C193" t="n">
-        <v>0.772427783876656</v>
+        <v>0.2404347717889648</v>
       </c>
       <c r="D193" t="n">
-        <v>1.023287102833012</v>
+        <v>0.03842253415769292</v>
       </c>
       <c r="E193" t="n">
         <v>26</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.168626776684585</v>
+        <v>0.5565423622843271</v>
       </c>
       <c r="C194" t="n">
-        <v>0.797155457854648</v>
+        <v>0.3955128887056493</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9250933293654549</v>
+        <v>0.04794474901002343</v>
       </c>
       <c r="E194" t="n">
         <v>26</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.08896368367404706</v>
+        <v>0.4699863201607734</v>
       </c>
       <c r="C195" t="n">
-        <v>0.3805835809968321</v>
+        <v>0.3775405822957421</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3851325653127469</v>
+        <v>0.1524730975434845</v>
       </c>
       <c r="E195" t="n">
         <v>26</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.232583452389358</v>
+        <v>0.9442350245640121</v>
       </c>
       <c r="C196" t="n">
-        <v>1.488169124398714</v>
+        <v>0.05155218799094323</v>
       </c>
       <c r="D196" t="n">
-        <v>1.262340602562321</v>
+        <v>0.004212787445044585</v>
       </c>
       <c r="E196" t="n">
         <v>26</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.5202295923416733</v>
+        <v>0.7461306888166578</v>
       </c>
       <c r="C197" t="n">
-        <v>1.000167479527993</v>
+        <v>0.2277103288999999</v>
       </c>
       <c r="D197" t="n">
-        <v>0.98735165486953</v>
+        <v>0.02615898228334219</v>
       </c>
       <c r="E197" t="n">
         <v>26</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.7339928120977623</v>
+        <v>0.8370802509282903</v>
       </c>
       <c r="C198" t="n">
-        <v>1.277791795381679</v>
+        <v>0.1530843176539519</v>
       </c>
       <c r="D198" t="n">
-        <v>1.301137139382066</v>
+        <v>0.00983543141775766</v>
       </c>
       <c r="E198" t="n">
         <v>26</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.7062864355829339</v>
+        <v>0.8275016977233993</v>
       </c>
       <c r="C199" t="n">
-        <v>1.278143352251381</v>
+        <v>0.161725770092711</v>
       </c>
       <c r="D199" t="n">
-        <v>1.250412298579394</v>
+        <v>0.01077253218388961</v>
       </c>
       <c r="E199" t="n">
         <v>26</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.647493971859513</v>
+        <v>0.9791229913138457</v>
       </c>
       <c r="C200" t="n">
-        <v>1.910894658978042</v>
+        <v>0.01987966284753498</v>
       </c>
       <c r="D200" t="n">
-        <v>1.467207637877737</v>
+        <v>0.0009973458386192667</v>
       </c>
       <c r="E200" t="n">
         <v>26</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.490173173156885</v>
+        <v>0.6917296069808233</v>
       </c>
       <c r="C201" t="n">
-        <v>0.5716744476684332</v>
+        <v>0.2294732115727573</v>
       </c>
       <c r="D201" t="n">
-        <v>0.6460708662927197</v>
+        <v>0.07879718144641946</v>
       </c>
       <c r="E201" t="n">
         <v>26</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.8181983136852955</v>
+        <v>0.845246220367875</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9356228742636481</v>
+        <v>0.1249200910433287</v>
       </c>
       <c r="D202" t="n">
-        <v>0.7119613452350131</v>
+        <v>0.02983368858879629</v>
       </c>
       <c r="E202" t="n">
         <v>26</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.7747410893211628</v>
+        <v>0.8531214370760223</v>
       </c>
       <c r="C203" t="n">
-        <v>1.404264385464037</v>
+        <v>0.1415497690423446</v>
       </c>
       <c r="D203" t="n">
-        <v>1.625647160125626</v>
+        <v>0.005328793881632963</v>
       </c>
       <c r="E203" t="n">
         <v>26</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.609664641232977</v>
+        <v>0.9744817239518936</v>
       </c>
       <c r="C204" t="n">
-        <v>1.424822520552345</v>
+        <v>0.02161034507860421</v>
       </c>
       <c r="D204" t="n">
-        <v>1.149006934718175</v>
+        <v>0.003907930969502325</v>
       </c>
       <c r="E204" t="n">
         <v>26</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5496717437486416</v>
+        <v>0.7589433270454959</v>
       </c>
       <c r="C205" t="n">
-        <v>0.9354085963730276</v>
+        <v>0.2172768474840716</v>
       </c>
       <c r="D205" t="n">
-        <v>1.163359700827416</v>
+        <v>0.02377982547043228</v>
       </c>
       <c r="E205" t="n">
         <v>26</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.9787111156090822</v>
+        <v>0.9020096387554057</v>
       </c>
       <c r="C206" t="n">
-        <v>1.284457840541454</v>
+        <v>0.09132040796981893</v>
       </c>
       <c r="D206" t="n">
-        <v>1.463769753995836</v>
+        <v>0.006669953274775246</v>
       </c>
       <c r="E206" t="n">
         <v>26</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6692596779143776</v>
+        <v>0.8142981122440115</v>
       </c>
       <c r="C207" t="n">
-        <v>1.107876542225559</v>
+        <v>0.1747236767786882</v>
       </c>
       <c r="D207" t="n">
-        <v>1.569903005615915</v>
+        <v>0.01097821097730034</v>
       </c>
       <c r="E207" t="n">
         <v>26</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.022722679496846</v>
+        <v>0.9118456952173359</v>
       </c>
       <c r="C208" t="n">
-        <v>1.406287267913176</v>
+        <v>0.08287549063909225</v>
       </c>
       <c r="D208" t="n">
-        <v>1.403019294786122</v>
+        <v>0.005278814143571907</v>
       </c>
       <c r="E208" t="n">
         <v>26</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2.013857557775831</v>
+        <v>0.9911407533775413</v>
       </c>
       <c r="C209" t="n">
-        <v>1.943840613140841</v>
+        <v>0.008163997371328762</v>
       </c>
       <c r="D209" t="n">
-        <v>1.34735355946282</v>
+        <v>0.000695249251129873</v>
       </c>
       <c r="E209" t="n">
         <v>26</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.221949581196066</v>
+        <v>0.9363876147188608</v>
       </c>
       <c r="C210" t="n">
-        <v>1.240429040168797</v>
+        <v>0.05444789035835529</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9915514239906735</v>
+        <v>0.009164494922783947</v>
       </c>
       <c r="E210" t="n">
         <v>26</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.291450302319527</v>
+        <v>0.9463303532377084</v>
       </c>
       <c r="C211" t="n">
-        <v>1.299387440429717</v>
+        <v>0.0461805155391426</v>
       </c>
       <c r="D211" t="n">
-        <v>1.006110326334794</v>
+        <v>0.007489131223149152</v>
       </c>
       <c r="E211" t="n">
         <v>26</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.7409576866814638</v>
+        <v>0.8289764623823273</v>
       </c>
       <c r="C212" t="n">
-        <v>1.081428362881615</v>
+        <v>0.1458688006809851</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7156447043951339</v>
+        <v>0.02515473693668763</v>
       </c>
       <c r="E212" t="n">
         <v>26</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.7294467073191788</v>
+        <v>0.7812239618567304</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6072534193822654</v>
+        <v>0.1502004729126196</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6395258755915898</v>
+        <v>0.06857556523065018</v>
       </c>
       <c r="E213" t="n">
         <v>26</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9316000225092813</v>
+        <v>0.8676541061765629</v>
       </c>
       <c r="C214" t="n">
-        <v>0.8357384546609885</v>
+        <v>0.1002809010501357</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8279679794880246</v>
+        <v>0.03206499277330137</v>
       </c>
       <c r="E214" t="n">
         <v>26</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.9485010427391194</v>
+        <v>0.8787723396498038</v>
       </c>
       <c r="C215" t="n">
-        <v>0.9359654229065248</v>
+        <v>0.09623935688501238</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8226508800199093</v>
+        <v>0.02498830346518352</v>
       </c>
       <c r="E215" t="n">
         <v>26</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.187430322296583</v>
+        <v>0.358016978444988</v>
       </c>
       <c r="C216" t="n">
-        <v>0.7672142112199416</v>
+        <v>0.6102728413761411</v>
       </c>
       <c r="D216" t="n">
-        <v>1.377239326087635</v>
+        <v>0.03171018017887101</v>
       </c>
       <c r="E216" t="n">
         <v>27</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5363550364412453</v>
+        <v>0.758632147125364</v>
       </c>
       <c r="C217" t="n">
-        <v>1.023528732439478</v>
+        <v>0.2245221913475725</v>
       </c>
       <c r="D217" t="n">
-        <v>1.356137140093113</v>
+        <v>0.01684566152706348</v>
       </c>
       <c r="E217" t="n">
         <v>27</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.2349348884284501</v>
+        <v>0.5953409683653403</v>
       </c>
       <c r="C218" t="n">
-        <v>0.8162923731746949</v>
+        <v>0.3618125370624303</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9656621679304629</v>
+        <v>0.04284649457222912</v>
       </c>
       <c r="E218" t="n">
         <v>27</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.3854708927547057</v>
+        <v>0.6864101655412492</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9585452353518256</v>
+        <v>0.2929793116875991</v>
       </c>
       <c r="D219" t="n">
-        <v>1.354075306681667</v>
+        <v>0.0206105227711518</v>
       </c>
       <c r="E219" t="n">
         <v>27</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.2061590918993284</v>
+        <v>0.3395755376598422</v>
       </c>
       <c r="C220" t="n">
-        <v>0.5443187022776406</v>
+        <v>0.6026867799083224</v>
       </c>
       <c r="D220" t="n">
-        <v>1.132782435872971</v>
+        <v>0.05773768243183528</v>
       </c>
       <c r="E220" t="n">
         <v>27</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.0510149315605497</v>
+        <v>0.410756890059493</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3965781715691086</v>
+        <v>0.5078175238770078</v>
       </c>
       <c r="D221" t="n">
-        <v>1.045062790642862</v>
+        <v>0.08142558606349902</v>
       </c>
       <c r="E221" t="n">
         <v>27</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5970501572546232</v>
+        <v>0.7860326557792433</v>
       </c>
       <c r="C222" t="n">
-        <v>1.098918205723427</v>
+        <v>0.2007777671301198</v>
       </c>
       <c r="D222" t="n">
-        <v>1.421904874904671</v>
+        <v>0.01318957709063673</v>
       </c>
       <c r="E222" t="n">
         <v>27</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3302482151571928</v>
+        <v>0.6531731157661844</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9696450023710432</v>
+        <v>0.3158007735006764</v>
       </c>
       <c r="D223" t="n">
-        <v>1.016162249085726</v>
+        <v>0.03102611073313945</v>
       </c>
       <c r="E223" t="n">
         <v>27</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.7697706031600069</v>
+        <v>0.8474083927717642</v>
       </c>
       <c r="C224" t="n">
-        <v>1.241792713682974</v>
+        <v>0.1420882013883691</v>
       </c>
       <c r="D224" t="n">
-        <v>1.260622236390008</v>
+        <v>0.01050340583986666</v>
       </c>
       <c r="E224" t="n">
         <v>27</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3576351279608139</v>
+        <v>0.6770648985828476</v>
       </c>
       <c r="C225" t="n">
-        <v>1.418359274967377</v>
+        <v>0.3084162147732757</v>
       </c>
       <c r="D225" t="n">
-        <v>1.268222964364656</v>
+        <v>0.01451888664387678</v>
       </c>
       <c r="E225" t="n">
         <v>27</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3831668067869691</v>
+        <v>0.6967075599173909</v>
       </c>
       <c r="C226" t="n">
-        <v>1.57512261955579</v>
+        <v>0.2993124715369534</v>
       </c>
       <c r="D226" t="n">
-        <v>1.984763602309672</v>
+        <v>0.003979968545655641</v>
       </c>
       <c r="E226" t="n">
         <v>27</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.738850907901176</v>
+        <v>0.8437015826342731</v>
       </c>
       <c r="C227" t="n">
-        <v>1.658827262845838</v>
+        <v>0.1526960537837595</v>
       </c>
       <c r="D227" t="n">
-        <v>1.699071326722335</v>
+        <v>0.003602363581967272</v>
       </c>
       <c r="E227" t="n">
         <v>27</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.7681350795894082</v>
+        <v>0.8512660979990011</v>
       </c>
       <c r="C228" t="n">
-        <v>1.327114105908412</v>
+        <v>0.1436009019296615</v>
       </c>
       <c r="D228" t="n">
-        <v>1.837488058867239</v>
+        <v>0.005133000071337578</v>
       </c>
       <c r="E228" t="n">
         <v>27</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.5728486314080306</v>
+        <v>0.7538606295030496</v>
       </c>
       <c r="C229" t="n">
-        <v>0.805663168593076</v>
+        <v>0.2008266612659319</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7144047975423171</v>
+        <v>0.04531270923101872</v>
       </c>
       <c r="E229" t="n">
         <v>27</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.974045926482271</v>
+        <v>0.8963161346887591</v>
       </c>
       <c r="C230" t="n">
-        <v>1.248324921264361</v>
+        <v>0.09072702813617035</v>
       </c>
       <c r="D230" t="n">
-        <v>0.8587143901163068</v>
+        <v>0.01295683717507047</v>
       </c>
       <c r="E230" t="n">
         <v>27</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.4729977407793819</v>
+        <v>0.1044071117331505</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.5126709397213411</v>
+        <v>0.5491096169881365</v>
       </c>
       <c r="D231" t="n">
-        <v>0.3536438816356218</v>
+        <v>0.3464832712787129</v>
       </c>
       <c r="E231" t="n">
         <v>27</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.2641938062145976</v>
+        <v>0.2137742346982134</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.1380826165354088</v>
+        <v>0.3916273919397359</v>
       </c>
       <c r="D232" t="n">
-        <v>0.06074658292442564</v>
+        <v>0.3945983733620503</v>
       </c>
       <c r="E232" t="n">
         <v>27</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.9109276573921881</v>
+        <v>0.8747092070749718</v>
       </c>
       <c r="C233" t="n">
-        <v>1.035763146038737</v>
+        <v>0.1033236743341625</v>
       </c>
       <c r="D233" t="n">
-        <v>0.7544972644518446</v>
+        <v>0.0219671185908659</v>
       </c>
       <c r="E233" t="n">
         <v>27</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.503475454577478</v>
+        <v>0.7171605674141316</v>
       </c>
       <c r="C234" t="n">
-        <v>0.7152258339424313</v>
+        <v>0.2264795647387055</v>
       </c>
       <c r="D234" t="n">
-        <v>0.701381560257945</v>
+        <v>0.05635986784716287</v>
       </c>
       <c r="E234" t="n">
         <v>27</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.1003460981283217</v>
+        <v>0.4668213886581035</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3394277263099261</v>
+        <v>0.3849930340141298</v>
       </c>
       <c r="D235" t="n">
-        <v>0.4923275375882122</v>
+        <v>0.1481855773277668</v>
       </c>
       <c r="E235" t="n">
         <v>27</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.4700247869385998</v>
+        <v>0.18534804336526</v>
       </c>
       <c r="C236" t="n">
-        <v>0.01575179665410564</v>
+        <v>0.6707177681589489</v>
       </c>
       <c r="D236" t="n">
-        <v>0.8740376550776738</v>
+        <v>0.1439341884757912</v>
       </c>
       <c r="E236" t="n">
         <v>27</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.1236747608396109</v>
+        <v>0.3536927521982407</v>
       </c>
       <c r="C237" t="n">
-        <v>0.2534984503097539</v>
+        <v>0.5424124709802949</v>
       </c>
       <c r="D237" t="n">
-        <v>1.014007518376561</v>
+        <v>0.1038947768214646</v>
       </c>
       <c r="E237" t="n">
         <v>27</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.03804241261031849</v>
+        <v>0.4905493907586433</v>
       </c>
       <c r="C238" t="n">
-        <v>0.9296504791758244</v>
+        <v>0.4895027892111807</v>
       </c>
       <c r="D238" t="n">
-        <v>1.543110587178449</v>
+        <v>0.01994782003017569</v>
       </c>
       <c r="E238" t="n">
         <v>27</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.06878323261803643</v>
+        <v>0.3727068096181341</v>
       </c>
       <c r="C239" t="n">
-        <v>0.214931473707471</v>
+        <v>0.5143504905301424</v>
       </c>
       <c r="D239" t="n">
-        <v>1.012454115787536</v>
+        <v>0.1129426998517239</v>
       </c>
       <c r="E239" t="n">
         <v>27</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.9318693485107679</v>
+        <v>0.8939237944272036</v>
       </c>
       <c r="C240" t="n">
-        <v>1.319162901541252</v>
+        <v>0.1013888432824811</v>
       </c>
       <c r="D240" t="n">
-        <v>1.895912614373062</v>
+        <v>0.004687362290315191</v>
       </c>
       <c r="E240" t="n">
         <v>27</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.2487403025044352</v>
+        <v>0.1553626565058715</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.3521125393185778</v>
+        <v>0.3439626303151344</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.06834470465289882</v>
+        <v>0.5006747131789943</v>
       </c>
       <c r="E241" t="n">
         <v>27</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.4455842899911409</v>
+        <v>0.60597709380312</v>
       </c>
       <c r="C242" t="n">
-        <v>0.294598749688594</v>
+        <v>0.2537322362736023</v>
       </c>
       <c r="D242" t="n">
-        <v>0.683415550124709</v>
+        <v>0.1402906699232778</v>
       </c>
       <c r="E242" t="n">
         <v>27</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-1.09171194803398</v>
+        <v>0.0131751247083142</v>
       </c>
       <c r="C243" t="n">
-        <v>-1.152611904638656</v>
+        <v>0.2369386447753654</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.4567502733419934</v>
+        <v>0.7498862305163203</v>
       </c>
       <c r="E243" t="n">
         <v>27</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.04951362807810766</v>
+        <v>0.1788774513606488</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.3769199682990725</v>
+        <v>0.3312051633003215</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.01627707618825752</v>
+        <v>0.4899173853390293</v>
       </c>
       <c r="E244" t="n">
         <v>27</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.1669397764309417</v>
+        <v>0.2626359117669834</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.0523898860943981</v>
+        <v>0.3865214060010897</v>
       </c>
       <c r="D245" t="n">
-        <v>0.1031904116704987</v>
+        <v>0.3508426822319269</v>
       </c>
       <c r="E245" t="n">
         <v>27</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.1617425158661001</v>
+        <v>0.2125500070035801</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.2160107343312014</v>
+        <v>0.4152918610345708</v>
       </c>
       <c r="D246" t="n">
-        <v>0.1959577240795221</v>
+        <v>0.3721581319618489</v>
       </c>
       <c r="E246" t="n">
         <v>27</v>
